--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2022-07-28.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2022-07-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="4"/>
+    <workbookView windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="10" r:id="rId1"/>
@@ -123,10 +123,10 @@
     <t>Promenade en mer</t>
   </si>
   <si>
-    <t>1 foil electrique</t>
+    <t>Autre : foil électrique</t>
   </si>
   <si>
-    <t>1 bateau volant</t>
+    <t>Autres :  bateau volant</t>
   </si>
 </sst>
 </file>
@@ -2159,8 +2159,8 @@
   <sheetPr/>
   <dimension ref="A1:Q230"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="26.25"/>
@@ -2170,7 +2170,7 @@
     <col min="12" max="14" width="25.1047619047619" style="27" customWidth="1"/>
     <col min="15" max="15" width="38.9619047619048" style="27" customWidth="1"/>
     <col min="16" max="16" width="46.7428571428571" style="27" customWidth="1"/>
-    <col min="17" max="17" width="25.1047619047619" style="27" customWidth="1"/>
+    <col min="17" max="17" width="60.7142857142857" style="27" customWidth="1"/>
     <col min="18" max="16369" width="11.4285714285714" style="27"/>
     <col min="16370" max="16370" width="11.4285714285714" style="31"/>
     <col min="16371" max="16384" width="11" style="31"/>
@@ -2442,8 +2442,8 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>30</v>
+      <c r="K6" s="12">
+        <v>1</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -2460,7 +2460,9 @@
       <c r="P6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" s="27" customFormat="1" spans="2:2">
       <c r="B7" s="29"/>
@@ -3315,8 +3317,8 @@
   <sheetPr/>
   <dimension ref="A1:Q230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3326,7 +3328,7 @@
     <col min="12" max="14" width="23.8952380952381" style="1" customWidth="1"/>
     <col min="15" max="15" width="50" style="1" customWidth="1"/>
     <col min="16" max="16" width="60" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.8952380952381" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.5714285714286" style="1" customWidth="1"/>
     <col min="18" max="16369" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3443,8 +3445,8 @@
       <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>31</v>
+      <c r="K3" s="12">
+        <v>1</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -3461,7 +3463,9 @@
       <c r="P3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69.75" customHeight="1" spans="1:17">
       <c r="A4" s="11">
